--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124102a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124102a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>total</t>
   </si>
@@ -22,9 +22,6 @@
     <t>local de ocorrência do último roubo</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>própria residênciaou de terceiros</t>
   </si>
   <si>
@@ -43,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -85,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -109,9 +94,6 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
@@ -128,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -491,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,27 +489,27 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -556,589 +532,554 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.82</v>
+      </c>
+      <c r="D5">
+        <v>4.44</v>
+      </c>
+      <c r="E5">
+        <v>0.92</v>
+      </c>
+      <c r="F5">
+        <v>5.34</v>
+      </c>
+      <c r="G5">
+        <v>8.98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.82</v>
+        <v>4.01</v>
       </c>
       <c r="D6">
-        <v>4.44</v>
+        <v>5.75</v>
       </c>
       <c r="E6">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F6">
-        <v>5.34</v>
+        <v>5.49</v>
       </c>
       <c r="G6">
-        <v>8.98</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.01</v>
+        <v>4.25</v>
       </c>
       <c r="D7">
-        <v>5.75</v>
+        <v>4.94</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
       <c r="F7">
-        <v>5.49</v>
+        <v>6.2</v>
       </c>
       <c r="G7">
-        <v>9.140000000000001</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.01</v>
+      </c>
+      <c r="D8">
+        <v>5.01</v>
+      </c>
+      <c r="E8">
+        <v>0.82</v>
+      </c>
+      <c r="F8">
+        <v>4.96</v>
+      </c>
+      <c r="G8">
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.25</v>
+        <v>11.9</v>
       </c>
       <c r="D9">
-        <v>4.94</v>
+        <v>11.98</v>
       </c>
       <c r="E9">
-        <v>1.14</v>
+        <v>2.29</v>
       </c>
       <c r="F9">
-        <v>6.2</v>
+        <v>11.11</v>
       </c>
       <c r="G9">
-        <v>9.82</v>
+        <v>19.65</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.01</v>
+        <v>4.18</v>
       </c>
       <c r="D10">
-        <v>5.01</v>
+        <v>5.48</v>
       </c>
       <c r="E10">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="F10">
-        <v>4.96</v>
+        <v>5.38</v>
       </c>
       <c r="G10">
-        <v>8.390000000000001</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.9</v>
+        <v>7.12</v>
       </c>
       <c r="D11">
-        <v>11.98</v>
+        <v>7.81</v>
       </c>
       <c r="E11">
-        <v>2.29</v>
+        <v>0.86</v>
       </c>
       <c r="F11">
-        <v>11.11</v>
+        <v>7.17</v>
       </c>
       <c r="G11">
-        <v>19.65</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.18</v>
+        <v>6.24</v>
       </c>
       <c r="D12">
-        <v>5.48</v>
+        <v>6.72</v>
       </c>
       <c r="E12">
-        <v>0.88</v>
+        <v>1.3</v>
       </c>
       <c r="F12">
-        <v>5.38</v>
+        <v>6.84</v>
       </c>
       <c r="G12">
-        <v>9.42</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>8.49</v>
+      </c>
+      <c r="D13">
+        <v>9.07</v>
+      </c>
+      <c r="E13">
+        <v>2.35</v>
+      </c>
+      <c r="F13">
+        <v>11.05</v>
+      </c>
+      <c r="G13">
+        <v>21.29</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.12</v>
+        <v>6.09</v>
       </c>
       <c r="D14">
-        <v>7.81</v>
+        <v>7.23</v>
       </c>
       <c r="E14">
-        <v>0.86</v>
+        <v>1.79</v>
       </c>
       <c r="F14">
-        <v>7.17</v>
+        <v>8.34</v>
       </c>
       <c r="G14">
-        <v>8.58</v>
+        <v>19.37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.24</v>
+        <v>4.62</v>
       </c>
       <c r="D15">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="E15">
-        <v>1.3</v>
+        <v>2.11</v>
       </c>
       <c r="F15">
-        <v>6.84</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G15">
-        <v>14.16</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.49</v>
+        <v>7.46</v>
       </c>
       <c r="D16">
-        <v>9.07</v>
+        <v>17.77</v>
       </c>
       <c r="E16">
-        <v>2.35</v>
+        <v>4.04</v>
       </c>
       <c r="F16">
-        <v>11.05</v>
+        <v>16.63</v>
       </c>
       <c r="G16">
-        <v>21.29</v>
+        <v>30.97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.09</v>
+        <v>5.07</v>
       </c>
       <c r="D17">
-        <v>7.23</v>
+        <v>6.91</v>
       </c>
       <c r="E17">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="F17">
-        <v>8.34</v>
+        <v>7.51</v>
       </c>
       <c r="G17">
-        <v>19.37</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.62</v>
+        <v>8.34</v>
       </c>
       <c r="D18">
-        <v>6.79</v>
+        <v>9.17</v>
       </c>
       <c r="E18">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="F18">
-        <v>9.109999999999999</v>
+        <v>11.87</v>
       </c>
       <c r="G18">
-        <v>15.55</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>10.21</v>
+      </c>
+      <c r="D19">
+        <v>11.46</v>
+      </c>
+      <c r="E19">
+        <v>1.66</v>
+      </c>
+      <c r="F19">
+        <v>12.17</v>
+      </c>
+      <c r="G19">
+        <v>18.87</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.46</v>
+        <v>5.85</v>
       </c>
       <c r="D20">
-        <v>17.77</v>
+        <v>5.69</v>
       </c>
       <c r="E20">
-        <v>4.04</v>
+        <v>1.27</v>
       </c>
       <c r="F20">
-        <v>16.63</v>
+        <v>6.26</v>
       </c>
       <c r="G20">
-        <v>30.97</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.07</v>
+        <v>12.04</v>
       </c>
       <c r="D21">
-        <v>6.91</v>
+        <v>14.23</v>
       </c>
       <c r="E21">
-        <v>1.27</v>
+        <v>2.11</v>
       </c>
       <c r="F21">
-        <v>7.51</v>
+        <v>12.97</v>
       </c>
       <c r="G21">
-        <v>10.07</v>
+        <v>20.33</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.34</v>
+        <v>8.6</v>
       </c>
       <c r="D22">
-        <v>9.17</v>
+        <v>10.61</v>
       </c>
       <c r="E22">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="F22">
-        <v>11.87</v>
+        <v>13.76</v>
       </c>
       <c r="G22">
-        <v>20.21</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.21</v>
+        <v>3.04</v>
       </c>
       <c r="D23">
-        <v>11.46</v>
+        <v>3.67</v>
       </c>
       <c r="E23">
-        <v>1.66</v>
+        <v>0.72</v>
       </c>
       <c r="F23">
-        <v>12.17</v>
+        <v>3.98</v>
       </c>
       <c r="G23">
-        <v>18.87</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.85</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D24">
-        <v>5.69</v>
+        <v>16.94</v>
       </c>
       <c r="E24">
-        <v>1.27</v>
+        <v>2.21</v>
       </c>
       <c r="F24">
-        <v>6.26</v>
+        <v>14.21</v>
       </c>
       <c r="G24">
-        <v>12.55</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.04</v>
+        <v>7.33</v>
       </c>
       <c r="D25">
-        <v>14.23</v>
+        <v>11.3</v>
       </c>
       <c r="E25">
-        <v>2.11</v>
+        <v>1.63</v>
       </c>
       <c r="F25">
-        <v>12.97</v>
+        <v>11.29</v>
       </c>
       <c r="G25">
-        <v>20.33</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>8.6</v>
+        <v>5.67</v>
       </c>
       <c r="D26">
-        <v>10.61</v>
+        <v>7.66</v>
       </c>
       <c r="E26">
-        <v>2.35</v>
+        <v>1.22</v>
       </c>
       <c r="F26">
-        <v>13.76</v>
+        <v>6.92</v>
       </c>
       <c r="G26">
-        <v>25.19</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>5.88</v>
+      </c>
+      <c r="D27">
+        <v>6.31</v>
+      </c>
+      <c r="E27">
+        <v>1.34</v>
+      </c>
+      <c r="F27">
+        <v>6.89</v>
+      </c>
+      <c r="G27">
+        <v>12.32</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3.04</v>
+        <v>5.86</v>
       </c>
       <c r="D28">
-        <v>3.67</v>
+        <v>6.35</v>
       </c>
       <c r="E28">
-        <v>0.72</v>
+        <v>1.63</v>
       </c>
       <c r="F28">
-        <v>3.98</v>
+        <v>9.07</v>
       </c>
       <c r="G28">
-        <v>6.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="D29">
-        <v>16.94</v>
-      </c>
-      <c r="E29">
-        <v>2.21</v>
-      </c>
-      <c r="F29">
-        <v>14.21</v>
-      </c>
-      <c r="G29">
-        <v>24.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>7.33</v>
-      </c>
-      <c r="D30">
-        <v>11.3</v>
-      </c>
-      <c r="E30">
-        <v>1.63</v>
-      </c>
-      <c r="F30">
-        <v>11.29</v>
-      </c>
-      <c r="G30">
-        <v>16.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>5.67</v>
-      </c>
-      <c r="D31">
-        <v>7.66</v>
-      </c>
-      <c r="E31">
-        <v>1.22</v>
-      </c>
-      <c r="F31">
-        <v>6.92</v>
-      </c>
-      <c r="G31">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>5.88</v>
-      </c>
-      <c r="D32">
-        <v>6.31</v>
-      </c>
-      <c r="E32">
-        <v>1.34</v>
-      </c>
-      <c r="F32">
-        <v>6.89</v>
-      </c>
-      <c r="G32">
-        <v>12.32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>5.86</v>
-      </c>
-      <c r="D33">
-        <v>6.35</v>
-      </c>
-      <c r="E33">
-        <v>1.63</v>
-      </c>
-      <c r="F33">
-        <v>9.07</v>
-      </c>
-      <c r="G33">
         <v>13.35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
